--- a/aplicacion.xlsx
+++ b/aplicacion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>1990</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>El Caribe</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -712,7 +715,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1057,3209 +1060,3293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK28"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="4">
         <v>691.91524096291596</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>204022.76130065901</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>5795.57502059934</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>3560.6513438411098</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>529.14257062235902</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>9312.4762232583598</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>1190328.2624907</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>80611.691684464706</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>147218.48631240599</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>14652.868539476</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>44721.374401059198</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>317.82402990569199</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>38020.869118888899</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>11329.577797349501</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <v>459.44091893525899</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="4">
         <v>19885.625550309702</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="4">
         <v>1106.7199615530501</v>
       </c>
-      <c r="S2" s="4">
+      <c r="T2" s="4">
         <v>6643.49902969922</v>
       </c>
-      <c r="T2" s="4">
+      <c r="U2" s="4">
         <v>7649.6348754616802</v>
       </c>
-      <c r="U2" s="4">
+      <c r="V2" s="4">
         <v>10052.1039207965</v>
       </c>
-      <c r="V2" s="4">
+      <c r="W2" s="4">
         <v>617851.60959938401</v>
       </c>
-      <c r="W2" s="4">
+      <c r="X2" s="4">
         <v>4738.3124538294596</v>
       </c>
-      <c r="X2" s="4">
+      <c r="Y2" s="4">
         <v>10064.0782024943</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Z2" s="4">
         <v>11377.6756866859</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="AA2" s="4">
         <v>58090.4430886189</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AB2" s="4">
         <v>18512.6495932941</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AC2" s="4">
         <v>327.45381261701402</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AD2" s="4">
         <v>376.75371635175702</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AE2" s="4">
         <v>778.63318273707898</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AF2" s="4">
         <v>2571.2722325322302</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AG2" s="4">
         <v>8041.2277503723999</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AH2" s="4">
         <v>21388.314126970301</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AI2" s="4">
         <v>143202.508742468</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AJ2" s="4">
         <v>2694231.4325192999</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AK2" s="4">
         <v>2659622.7188174799</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AL2" s="4">
         <v>34608.713701826702</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C3" s="4">
         <v>706.97734579447103</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>225605.808000405</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>5553.22390471782</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>3421.3197476311998</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>589.81114944264505</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>9802.9203418927991</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>1202588.64359435</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>87036.363356128102</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>150710.393309651</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>14984.8519867061</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>39939.453162960403</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>322.10344234109903</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>39652.474795483802</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>11734.627826018501</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>465.80670026350498</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
         <v>20613.0912006043</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>1173.05648936903</v>
       </c>
-      <c r="S3" s="4">
+      <c r="T3" s="4">
         <v>6768.5416587540403</v>
       </c>
-      <c r="T3" s="4">
+      <c r="U3" s="4">
         <v>7898.4034892978298</v>
       </c>
-      <c r="U3" s="4">
+      <c r="V3" s="4">
         <v>10136.1457696618</v>
       </c>
-      <c r="V3" s="4">
+      <c r="W3" s="4">
         <v>643938.853607403</v>
       </c>
-      <c r="W3" s="4">
+      <c r="X3" s="4">
         <v>4729.3280885629101</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Y3" s="4">
         <v>11012.0143988166</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Z3" s="4">
         <v>11658.535817734801</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="AA3" s="4">
         <v>59724.4024528769</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AB3" s="4">
         <v>18687.574330869898</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AC3" s="4">
         <v>334.86062500864602</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AD3" s="4">
         <v>382.02683781776</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AE3" s="4">
         <v>779.67777793408902</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AF3" s="4">
         <v>2632.8888437666501</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AG3" s="4">
         <v>8256.9808923012097</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AH3" s="4">
         <v>22145.205604156701</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AI3" s="4">
         <v>157135.95237199299</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AJ3" s="4">
         <v>2781122.3189207199</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AK3" s="4">
         <v>2746367.4393946701</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AL3" s="4">
         <v>34754.879526049903</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="4">
         <v>715.16646321631004</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>247277.70124414499</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>5340.7855870973599</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>3182.3498587827999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>661.07926265632705</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>9964.3251246305699</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>1196094.66491894</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>97722.708495347193</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>157271.201484469</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>16356.268086365901</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>35314.223661372103</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>328.64210036943399</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>40490.851303037198</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>12619.9844984476</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <v>461.84198075305801</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <v>21610.423140524199</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>1264.06087174975</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <v>6409.0645723301404</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <v>8342.63315686239</v>
       </c>
-      <c r="U4" s="4">
+      <c r="V4" s="4">
         <v>10303.958291044</v>
       </c>
-      <c r="V4" s="4">
+      <c r="W4" s="4">
         <v>667305.19693073805</v>
       </c>
-      <c r="W4" s="4">
+      <c r="X4" s="4">
         <v>4747.6102271866903</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Y4" s="4">
         <v>11915.1845840771</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Z4" s="4">
         <v>11856.3144850468</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AA4" s="4">
         <v>59468.323863111</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AB4" s="4">
         <v>20652.233029339899</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AC4" s="4">
         <v>345.193809903474</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AD4" s="4">
         <v>408.52552076836997</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AE4" s="4">
         <v>837.13063577446803</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AF4" s="4">
         <v>2654.46310769515</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AG4" s="4">
         <v>8120.9701913717299</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AH4" s="4">
         <v>23901.6721641328</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AI4" s="4">
         <v>166659.13476158399</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AJ4" s="4">
         <v>2850603.8874128698</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AK4" s="4">
         <v>2815979.7197316899</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AL4" s="4">
         <v>34624.167681182204</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
         <v>752.92776954687497</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>261428.73453879199</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>5357.2130768645502</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>3221.2330949344</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>702.56660321449499</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>10389.731429016399</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>1254942.5224329601</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>104549.87494577801</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>166251.643742669</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>17568.870549132302</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>30060.1097578433</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>335.74775894311898</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>41289.824101189202</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>13550.0609217697</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <v>452.79534138687802</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <v>22459.328621150202</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <v>1367.7325307988499</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="4">
         <v>6060.9922196543403</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <v>8862.3818679129199</v>
       </c>
-      <c r="U5" s="4">
+      <c r="V5" s="4">
         <v>10506.730272905301</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <v>680321.14918512502</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <v>4728.9624457904401</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="4">
         <v>12565.2464698272</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <v>12441.5847813736</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AA5" s="4">
         <v>62301.986257216602</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AB5" s="4">
         <v>22143.8656253316</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AC5" s="4">
         <v>363.89714720651301</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AD5" s="4">
         <v>415.82804544841798</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AE5" s="4">
         <v>846.00809270596903</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AF5" s="4">
         <v>2513.92088611703</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AG5" s="4">
         <v>8002.95137869272</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AH5" s="4">
         <v>24536.870123146899</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AI5" s="4">
         <v>167118.094131675</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AJ5" s="4">
         <v>2958411.3861461198</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AK5" s="4">
         <v>2923571.8341473499</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AL5" s="4">
         <v>34839.551998765099</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C6" s="4">
         <v>803.19470992362506</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>276686.24016613298</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>5525.9179708353004</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>3343.1482416180802</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>703.67917233044</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>10874.6482922371</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>1328356.65999529</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>110517.706324528</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>174809.191486936</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>18399.807166356899</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>30275.619713764499</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>335.861940601421</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>43048.0482293022</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <v>14369.883690119699</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <v>460.46368198978303</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="4">
         <v>23365.140688936299</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <v>1490.40510485051</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <v>5337.0868294028296</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="4">
         <v>8746.8821543461308</v>
       </c>
-      <c r="U6" s="4">
+      <c r="V6" s="4">
         <v>10600.5010376132</v>
       </c>
-      <c r="V6" s="4">
+      <c r="W6" s="4">
         <v>710359.54451295105</v>
       </c>
-      <c r="W6" s="4">
+      <c r="X6" s="4">
         <v>4886.7895367954397</v>
       </c>
-      <c r="X6" s="4">
+      <c r="Y6" s="4">
         <v>12923.3745583214</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Z6" s="4">
         <v>13103.218015668899</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AA6" s="4">
         <v>70290.122127401293</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AB6" s="4">
         <v>22653.895626230598</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AC6" s="4">
         <v>383.56382452613298</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AD6" s="4">
         <v>403.73479842701698</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AE6" s="4">
         <v>861.47746041689504</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AF6" s="4">
         <v>2429.8935995224401</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AG6" s="4">
         <v>8288.2299613678206</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AH6" s="4">
         <v>26323.483714875001</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AI6" s="4">
         <v>163191.64133405601</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AJ6" s="4">
         <v>3104149.05566767</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AK6" s="4">
         <v>3068518.9841636498</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AL6" s="4">
         <v>35630.071504022599</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C7" s="4">
         <v>768.17947676852395</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>268813.93666807603</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>5767.8735298282099</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>3410.7888711734699</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>708.21257771876503</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>11383.393982092301</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>1384413.31104708</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>122263.060907119</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>183903.53058005101</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>19121.2421664309</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>31019.552552872399</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>346.03911929022701</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>44017.726512024397</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <v>15288.868671267801</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="4">
         <v>470.269146685034</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <v>24521.459073396501</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <v>1558.7417289825501</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="4">
         <v>5865.0165140695299</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="4">
         <v>9103.7466539563302</v>
       </c>
-      <c r="U7" s="4">
+      <c r="V7" s="4">
         <v>10863.922557239101</v>
       </c>
-      <c r="V7" s="4">
+      <c r="W7" s="4">
         <v>666551.71311676304</v>
       </c>
-      <c r="W7" s="4">
+      <c r="X7" s="4">
         <v>5175.6920341661498</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Y7" s="4">
         <v>13149.750547908599</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Z7" s="4">
         <v>13997.225724547699</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AA7" s="4">
         <v>75499.600757528606</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AB7" s="4">
         <v>23898.416673072101</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AC7" s="4">
         <v>468.45589145892802</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AD7" s="4">
         <v>439.48733557611098</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AE7" s="4">
         <v>894.48675473312903</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AF7" s="4">
         <v>2497.3026036236802</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AG7" s="4">
         <v>8616.1707499775603</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AH7" s="4">
         <v>25942.425233530001</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AI7" s="4">
         <v>169640.42465549899</v>
       </c>
-      <c r="AI7" s="4">
+      <c r="AJ7" s="4">
         <v>3150380.02441451</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AK7" s="4">
         <v>3113570.0940714502</v>
       </c>
-      <c r="AK7" s="4">
+      <c r="AL7" s="4">
         <v>36809.930343055297</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="4">
         <v>818.91632440704404</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>283670.44916282099</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>6011.4795093945504</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>3546.0701302842599</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>718.32734495350496</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>11879.8628453088</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>1414185.1065951299</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>131327.04054051399</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>187684.31997929499</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>19290.769771885502</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>33451.097743315302</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>356.78337495035902</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>44780.0023968268</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>15549.729951674901</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <v>491.14078212042898</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <v>25246.578060303</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>1681.41430303421</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <v>6107.9946648084497</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="4">
         <v>9429.5150768370095</v>
       </c>
-      <c r="U8" s="4">
+      <c r="V8" s="4">
         <v>10880.9540213644</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W8" s="4">
         <v>700901.22294404195</v>
       </c>
-      <c r="W8" s="4">
+      <c r="X8" s="4">
         <v>5504.0518187693897</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Y8" s="4">
         <v>13519.3353406556</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Z8" s="4">
         <v>14217.511981855499</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AA8" s="4">
         <v>77612.814257579594</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AB8" s="4">
         <v>25602.700559291901</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AC8" s="4">
         <v>499.76444199778598</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AD8" s="4">
         <v>445.457272631688</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AE8" s="4">
         <v>922.15203146696297</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AF8" s="4">
         <v>2524.75627494633</v>
       </c>
-      <c r="AF8" s="4">
+      <c r="AG8" s="4">
         <v>9222.89744044074</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AH8" s="4">
         <v>27389.482757624999</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AI8" s="4">
         <v>169304.812487285</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AJ8" s="4">
         <v>3254774.5121878199</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AK8" s="4">
         <v>3216654.3989358302</v>
       </c>
-      <c r="AK8" s="4">
+      <c r="AL8" s="4">
         <v>38120.113251992203</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="4">
         <v>863.72033053703797</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>306679.09193191299</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>6308.80628665924</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>3714.15911989796</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>743.78969086989105</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>12468.4160490472</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>1462194.51291131</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>140001.95545318301</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>194122.44334268401</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>20366.8449897752</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>34382.1548785267</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>364.58017441073298</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>46718.0203420217</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>16209.953946785001</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>515.77395262682501</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <v>26348.336520991001</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>1786.7527090133599</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <v>6273.1985163178597</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <v>9900.3985244554406</v>
       </c>
-      <c r="U9" s="4">
+      <c r="V9" s="4">
         <v>10773.851942622499</v>
       </c>
-      <c r="V9" s="4">
+      <c r="W9" s="4">
         <v>748366.060323696</v>
       </c>
-      <c r="W9" s="4">
+      <c r="X9" s="4">
         <v>5722.3783450821702</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <v>14392.8183193489</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Z9" s="4">
         <v>14820.6922170942</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AA9" s="4">
         <v>82639.659965082305</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AB9" s="4">
         <v>27652.010974648099</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AC9" s="4">
         <v>536.78941584257905</v>
       </c>
-      <c r="AC9" s="4">
+      <c r="AD9" s="4">
         <v>458.31234935749598</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AE9" s="4">
         <v>959.358786567214</v>
       </c>
-      <c r="AE9" s="4">
+      <c r="AF9" s="4">
         <v>2581.29024735543</v>
       </c>
-      <c r="AF9" s="4">
+      <c r="AG9" s="4">
         <v>9931.9481587882692</v>
       </c>
-      <c r="AG9" s="4">
+      <c r="AH9" s="4">
         <v>28772.0256337707</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AI9" s="4">
         <v>180091.10615046701</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AJ9" s="4">
         <v>3417661.2125007501</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AK9" s="4">
         <v>3378122.0793361999</v>
       </c>
-      <c r="AK9" s="4">
+      <c r="AL9" s="4">
         <v>39539.133164548497</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="C10" s="4">
         <v>904.58565250821505</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>318486.78552552703</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>6606.3585510654502</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>3853.0856823979602</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>771.61219457544098</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>13095.496623028201</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>1467138.16188193</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>144525.244440465</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>195228.522139687</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>22077.221314790899</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>34436.914972081198</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>378.33885827600602</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>48244.078213342204</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <v>16817.741379106701</v>
       </c>
-      <c r="P10" s="4">
+      <c r="Q10" s="4">
         <v>576.39543095803594</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <v>27664.2280158383</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <v>1763.0849026066501</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <v>6410.0694748516898</v>
       </c>
-      <c r="T10" s="4">
+      <c r="U10" s="4">
         <v>10187.6670428139</v>
       </c>
-      <c r="U10" s="4">
+      <c r="V10" s="4">
         <v>10641.7150384093</v>
       </c>
-      <c r="V10" s="4">
+      <c r="W10" s="4">
         <v>786011.69011531305</v>
       </c>
-      <c r="W10" s="4">
+      <c r="X10" s="4">
         <v>5934.7747991121396</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Y10" s="4">
         <v>15449.467328606701</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Z10" s="4">
         <v>14830.7758838707</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AA10" s="4">
         <v>82316.094660305695</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AB10" s="4">
         <v>29590.5822275459</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AC10" s="4">
         <v>541.86967121303496</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AD10" s="4">
         <v>482.04425715743901</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AE10" s="4">
         <v>1020.30829016064</v>
       </c>
-      <c r="AE10" s="4">
+      <c r="AF10" s="4">
         <v>2660.9857474153</v>
       </c>
-      <c r="AF10" s="4">
+      <c r="AG10" s="4">
         <v>10738.253774127101</v>
       </c>
-      <c r="AG10" s="4">
+      <c r="AH10" s="4">
         <v>30077.7940690547</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AI10" s="4">
         <v>180620.67334174001</v>
       </c>
-      <c r="AI10" s="4">
+      <c r="AJ10" s="4">
         <v>3490082.6214998802</v>
       </c>
-      <c r="AJ10" s="4">
+      <c r="AK10" s="4">
         <v>3449143.9834490102</v>
       </c>
-      <c r="AK10" s="4">
+      <c r="AL10" s="4">
         <v>40938.638050870497</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C11" s="4">
         <v>938.12673491181999</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>307704.55218337697</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>7078.3266403901098</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>3865.6417274052501</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>839.35202947108996</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>13151.3999331301</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>1474003.4524964599</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>143425.62252481401</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>187021.085308885</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>23892.452349148702</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>36568.085642765298</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>379.68112742667</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>45957.605225569598</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>17397.7766071802</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <v>616.15727757884395</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4">
         <v>28728.2931958558</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <v>1808.7537684900201</v>
       </c>
-      <c r="S11" s="4">
+      <c r="T11" s="4">
         <v>6583.7983168168003</v>
       </c>
-      <c r="T11" s="4">
+      <c r="U11" s="4">
         <v>9995.1675202025399</v>
       </c>
-      <c r="U11" s="4">
+      <c r="V11" s="4">
         <v>10746.9310061416</v>
       </c>
-      <c r="V11" s="4">
+      <c r="W11" s="4">
         <v>815540.96345818404</v>
       </c>
-      <c r="W11" s="4">
+      <c r="X11" s="4">
         <v>6352.3438060497401</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Y11" s="4">
         <v>16054.654854770901</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Z11" s="4">
         <v>14628.1756627133</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AA11" s="4">
         <v>83546.646720357297</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AB11" s="4">
         <v>31577.694600875901</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AC11" s="4">
         <v>561.57270098611104</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AD11" s="4">
         <v>503.24879773691998</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AE11" s="4">
         <v>1044.37314407504</v>
       </c>
-      <c r="AE11" s="4">
+      <c r="AF11" s="4">
         <v>2596.9709599323801</v>
       </c>
-      <c r="AF11" s="4">
+      <c r="AG11" s="4">
         <v>11599.933609793001</v>
       </c>
-      <c r="AG11" s="4">
+      <c r="AH11" s="4">
         <v>29221.618367298601</v>
       </c>
-      <c r="AH11" s="4">
+      <c r="AI11" s="4">
         <v>169836.79163610699</v>
       </c>
-      <c r="AI11" s="4">
+      <c r="AJ11" s="4">
         <v>3503767.2499349001</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AK11" s="4">
         <v>3461188.1804105602</v>
       </c>
-      <c r="AK11" s="4">
+      <c r="AL11" s="4">
         <v>42579.069524338898</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="C12" s="4">
         <v>995.20830865359596</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>305276.76658322098</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>7372.0270288872798</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>3954.7491435860102</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>948.63214772950698</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>13481.211734026199</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>1538681.9787896499</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>149864.10641364899</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>192491.192998471</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>24322.7150341911</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>38730.973793379497</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>388.56381111765899</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>46459.3710783637</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>17772.3133704641</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>646.27474158183497</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <v>29765.078413987299</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <v>1795.41979304962</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <v>6641.0812989343403</v>
       </c>
-      <c r="T12" s="4">
+      <c r="U12" s="4">
         <v>10569.7045569194</v>
       </c>
-      <c r="U12" s="4">
+      <c r="V12" s="4">
         <v>10821.244382729399</v>
       </c>
-      <c r="V12" s="4">
+      <c r="W12" s="4">
         <v>869293.06073142798</v>
       </c>
-      <c r="W12" s="4">
+      <c r="X12" s="4">
         <v>6612.8909142848497</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Y12" s="4">
         <v>16490.5987089884</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Z12" s="4">
         <v>14289.659115234401</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="AA12" s="4">
         <v>85797.703673636395</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AB12" s="4">
         <v>33363.920016659002</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AC12" s="4">
         <v>585.83796366789704</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AD12" s="4">
         <v>512.29522358175097</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AE12" s="4">
         <v>1042.3403009722199</v>
       </c>
-      <c r="AE12" s="4">
+      <c r="AF12" s="4">
         <v>2646.9666588389</v>
       </c>
-      <c r="AF12" s="4">
+      <c r="AG12" s="4">
         <v>12400.228684215799</v>
       </c>
-      <c r="AG12" s="4">
+      <c r="AH12" s="4">
         <v>28800.464333723401</v>
       </c>
-      <c r="AH12" s="4">
+      <c r="AI12" s="4">
         <v>176098.579318545</v>
       </c>
-      <c r="AI12" s="4">
+      <c r="AJ12" s="4">
         <v>3648913.15906636</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AK12" s="4">
         <v>3604803.3708777502</v>
       </c>
-      <c r="AK12" s="4">
+      <c r="AL12" s="4">
         <v>44109.788188611397</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="C13" s="4">
         <v>943.49562469289106</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>291817.603310465</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>7565.5889428829996</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>3853.8957498177801</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>996.21158067552301</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>13708.2085037952</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>1560068.06428889</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>154925.07379092</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>195720.99946827101</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>24584.525355260601</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>39964.566891000701</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>388.31975279824701</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>48325.0074745456</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>18076.1008919659</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>633.19480967953405</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <v>30459.104111002202</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>1824.75453901849</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <v>6571.7996391739198</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <v>10857.538040412001</v>
       </c>
-      <c r="U13" s="4">
+      <c r="V13" s="4">
         <v>10966.7846596132</v>
       </c>
-      <c r="V13" s="4">
+      <c r="W13" s="4">
         <v>869007.70565777505</v>
       </c>
-      <c r="W13" s="4">
+      <c r="X13" s="4">
         <v>6808.6882660297297</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Y13" s="4">
         <v>16585.299752502699</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Z13" s="4">
         <v>14170.4755399349</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AA13" s="4">
         <v>86327.841100197693</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AB13" s="4">
         <v>33967.5498948233</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AC13" s="4">
         <v>617.84684190006703</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AD13" s="4">
         <v>521.05250441759597</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AE13" s="4">
         <v>1002.91372377997</v>
       </c>
-      <c r="AE13" s="4">
+      <c r="AF13" s="4">
         <v>2798.5410003637298</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AG13" s="4">
         <v>12917.135202997501</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AH13" s="4">
         <v>27825.509326864401</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AI13" s="4">
         <v>182075.78088308201</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AJ13" s="4">
         <v>3676877.1771195498</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AK13" s="4">
         <v>3631847.4421869102</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AL13" s="4">
         <v>45029.734932637599</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="C14" s="4">
         <v>953.75822656990499</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>260025.578816036</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>7770.2121262003802</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>3879.8179072521898</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>1047.23066046086</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>14048.934915534701</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>1607704.1475726401</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>158308.80806393299</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>200621.81506183499</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>25298.012998393799</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>40533.802280447897</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>377.334662198199</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>50304.775101152001</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>18499.086018618302</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>654.95975893848197</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <v>31636.843209520899</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>1845.42220095111</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <v>6555.11866170352</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <v>11265.166701857301</v>
       </c>
-      <c r="U14" s="4">
+      <c r="V14" s="4">
         <v>11073.206502033199</v>
       </c>
-      <c r="V14" s="4">
+      <c r="W14" s="4">
         <v>875715.98831863701</v>
       </c>
-      <c r="W14" s="4">
+      <c r="X14" s="4">
         <v>6860.0216178049504</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Y14" s="4">
         <v>16955.010886087799</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Z14" s="4">
         <v>14167.442434934301</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AA14" s="4">
         <v>91035.754896309605</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AB14" s="4">
         <v>35933.662101578302</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AC14" s="4">
         <v>633.80070562930996</v>
       </c>
-      <c r="AC14" s="4">
+      <c r="AD14" s="4">
         <v>554.00027820259004</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AE14" s="4">
         <v>1006.04368797466</v>
       </c>
-      <c r="AE14" s="4">
+      <c r="AF14" s="4">
         <v>2874.3281711261402</v>
       </c>
-      <c r="AF14" s="4">
+      <c r="AG14" s="4">
         <v>13942.3307180427</v>
       </c>
-      <c r="AG14" s="4">
+      <c r="AH14" s="4">
         <v>24755.838063772098</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AI14" s="4">
         <v>165951.791813096</v>
       </c>
-      <c r="AI14" s="4">
+      <c r="AJ14" s="4">
         <v>3702790.0451394701</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AK14" s="4">
         <v>3656177.5995338899</v>
       </c>
-      <c r="AK14" s="4">
+      <c r="AL14" s="4">
         <v>46612.4456055798</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="C15" s="4">
         <v>1012.03798883564</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>283004.14526339801</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>7671.9377948527599</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>3956.36927842566</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>1144.90029158733</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>14429.8494068131</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>1626045.3027025801</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>164509.625210003</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>208482.72327391201</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>26918.226802229699</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>42071.394264811803</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>401.30822558999699</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>51674.512421787302</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>18924.619817089399</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q15" s="4">
         <v>716.94498755529798</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="4">
         <v>32437.505382701602</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <v>1833.75497244076</v>
       </c>
-      <c r="S15" s="4">
+      <c r="T15" s="4">
         <v>6578.8764174947</v>
       </c>
-      <c r="T15" s="4">
+      <c r="U15" s="4">
         <v>11777.398118372999</v>
       </c>
-      <c r="U15" s="4">
+      <c r="V15" s="4">
         <v>11479.187129143</v>
       </c>
-      <c r="V15" s="4">
+      <c r="W15" s="4">
         <v>887890.74963983195</v>
       </c>
-      <c r="W15" s="4">
+      <c r="X15" s="4">
         <v>7032.9444413753199</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Y15" s="4">
         <v>17668.053184168701</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Z15" s="4">
         <v>14779.581564538301</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="AA15" s="4">
         <v>94827.415150375004</v>
       </c>
-      <c r="AA15" s="4">
+      <c r="AB15" s="4">
         <v>35842.621004522996</v>
       </c>
-      <c r="AB15" s="4">
+      <c r="AC15" s="4">
         <v>610.88753940977097</v>
       </c>
-      <c r="AC15" s="4">
+      <c r="AD15" s="4">
         <v>596.60172618409399</v>
       </c>
-      <c r="AD15" s="4">
+      <c r="AE15" s="4">
         <v>1053.35412684992</v>
       </c>
-      <c r="AE15" s="4">
+      <c r="AF15" s="4">
         <v>3070.6856662823302</v>
       </c>
-      <c r="AF15" s="4">
+      <c r="AG15" s="4">
         <v>15954.703266435101</v>
       </c>
-      <c r="AG15" s="4">
+      <c r="AH15" s="4">
         <v>25294.264050862501</v>
       </c>
-      <c r="AH15" s="4">
+      <c r="AI15" s="4">
         <v>153081.73242030499</v>
       </c>
-      <c r="AI15" s="4">
+      <c r="AJ15" s="4">
         <v>3772774.21353077</v>
       </c>
-      <c r="AJ15" s="4">
+      <c r="AK15" s="4">
         <v>3723271.5405371799</v>
       </c>
-      <c r="AK15" s="4">
+      <c r="AL15" s="4">
         <v>49502.672993591703</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C16" s="4">
         <v>1070.8518621536</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>308558.212064141</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>7739.6751955311602</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>4013.0739978134102</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>1198.11629687094</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>15032.0494922087</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>1719704.9371175801</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>174447.794368025</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>219601.152912939</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>28064.797074591999</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>44498.989871600003</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>413.55090258467402</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>55917.517445673897</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>19274.849802843099</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>712.30313089314495</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
         <v>33459.962115545997</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <v>1862.42301963762</v>
       </c>
-      <c r="S16" s="4">
+      <c r="T16" s="4">
         <v>6347.36466957211</v>
       </c>
-      <c r="T16" s="4">
+      <c r="U16" s="4">
         <v>12511.401249996699</v>
       </c>
-      <c r="U16" s="4">
+      <c r="V16" s="4">
         <v>11631.135895845</v>
       </c>
-      <c r="V16" s="4">
+      <c r="W16" s="4">
         <v>925270.55784044601</v>
       </c>
-      <c r="W16" s="4">
+      <c r="X16" s="4">
         <v>7406.5464405926796</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Y16" s="4">
         <v>18997.0583338857</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Z16" s="4">
         <v>15379.251021407999</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="AA16" s="4">
         <v>99529.151088639206</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AB16" s="4">
         <v>36312.861216122001</v>
       </c>
-      <c r="AB16" s="4">
+      <c r="AC16" s="4">
         <v>632.92027881093998</v>
       </c>
-      <c r="AC16" s="4">
+      <c r="AD16" s="4">
         <v>621.39818001732499</v>
       </c>
-      <c r="AD16" s="4">
+      <c r="AE16" s="4">
         <v>1133.9220773735599</v>
       </c>
-      <c r="AE16" s="4">
+      <c r="AF16" s="4">
         <v>3087.3300089531399</v>
       </c>
-      <c r="AF16" s="4">
+      <c r="AG16" s="4">
         <v>17224.2308905262</v>
       </c>
-      <c r="AG16" s="4">
+      <c r="AH16" s="4">
         <v>28284.045679811999</v>
       </c>
-      <c r="AH16" s="4">
+      <c r="AI16" s="4">
         <v>181075.186740904</v>
       </c>
-      <c r="AI16" s="4">
+      <c r="AJ16" s="4">
         <v>4001014.6182835302</v>
       </c>
-      <c r="AJ16" s="4">
+      <c r="AK16" s="4">
         <v>3949673.6865465199</v>
       </c>
-      <c r="AK16" s="4">
+      <c r="AL16" s="4">
         <v>51340.931737010796</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="C17" s="4">
         <v>1138.1793580021399</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>335870.73564948502</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>8002.45758542159</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>4173.4673469387799</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>1229.0038359932701</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>15696.6817546455</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>1774772.1399571199</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>184146.13667413301</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>229936.804006124</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>29716.7966247287</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>49483.775418462603</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>416.26474691200599</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>58876.285668974699</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>19961.528067478899</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>806.84754937308605</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>34550.793886980799</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>1826.0879365625301</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <v>6461.6040910360898</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <v>13268.415996710301</v>
       </c>
-      <c r="U17" s="4">
+      <c r="V17" s="4">
         <v>11735.0965559531</v>
       </c>
-      <c r="V17" s="4">
+      <c r="W17" s="4">
         <v>953728.291822584</v>
       </c>
-      <c r="W17" s="4">
+      <c r="X17" s="4">
         <v>7723.7242613501703</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Y17" s="4">
         <v>20363.18977325</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Z17" s="4">
         <v>15707.365905824599</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AA17" s="4">
         <v>105784.618275616</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AB17" s="4">
         <v>39676.430794573898</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AC17" s="4">
         <v>688.43647917197802</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AD17" s="4">
         <v>636.85861038667997</v>
       </c>
-      <c r="AD17" s="4">
+      <c r="AE17" s="4">
         <v>1128.37664455357</v>
       </c>
-      <c r="AE17" s="4">
+      <c r="AF17" s="4">
         <v>3308.3094437025002</v>
       </c>
-      <c r="AF17" s="4">
+      <c r="AG17" s="4">
         <v>18150.771462904901</v>
       </c>
-      <c r="AG17" s="4">
+      <c r="AH17" s="4">
         <v>30157.482722985798</v>
       </c>
-      <c r="AH17" s="4">
+      <c r="AI17" s="4">
         <v>199758.36842983199</v>
       </c>
-      <c r="AI17" s="4">
+      <c r="AJ17" s="4">
         <v>4178881.3273377698</v>
       </c>
-      <c r="AJ17" s="4">
+      <c r="AK17" s="4">
         <v>4125641.1697818902</v>
       </c>
-      <c r="AK17" s="4">
+      <c r="AL17" s="4">
         <v>53240.157555876103</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="C18" s="4">
         <v>1283.9228081625899</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>362898.76260364801</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>8203.8674391036293</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>4411.6271683673504</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>1285.3118906571401</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>16449.653017938399</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>1845088.4145577999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>192598.35103484901</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>245336.85653751399</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>32325.823424922601</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>55454.353948460797</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>435.65753048449602</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>61468.918471666402</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>20742.459991780499</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>774.63270552486495</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="4">
         <v>36409.549513802202</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>1919.75911403133</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <v>6607.1835307778101</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <v>14139.785190677099</v>
       </c>
-      <c r="U18" s="4">
+      <c r="V18" s="4">
         <v>12072.191570822701</v>
       </c>
-      <c r="V18" s="4">
+      <c r="W18" s="4">
         <v>1001188.74086948</v>
       </c>
-      <c r="W18" s="4">
+      <c r="X18" s="4">
         <v>8044.4186374747696</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Y18" s="4">
         <v>22099.7139616733</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Z18" s="4">
         <v>16462.437392383599</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="AA18" s="4">
         <v>113749.035389731</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AB18" s="4">
         <v>43910.364162186997</v>
       </c>
-      <c r="AB18" s="4">
+      <c r="AC18" s="4">
         <v>700.91115062430504</v>
       </c>
-      <c r="AC18" s="4">
+      <c r="AD18" s="4">
         <v>685.82258096648604</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AE18" s="4">
         <v>1205.2384304730499</v>
       </c>
-      <c r="AE18" s="4">
+      <c r="AF18" s="4">
         <v>3684.0542587456398</v>
       </c>
-      <c r="AF18" s="4">
+      <c r="AG18" s="4">
         <v>20766.056784231401</v>
       </c>
-      <c r="AG18" s="4">
+      <c r="AH18" s="4">
         <v>31393.5104782487</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AI18" s="4">
         <v>219478.81241795301</v>
       </c>
-      <c r="AI18" s="4">
+      <c r="AJ18" s="4">
         <v>4403276.1985651599</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AK18" s="4">
         <v>4345847.1451329598</v>
       </c>
-      <c r="AK18" s="4">
+      <c r="AL18" s="4">
         <v>57429.053432195004</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="C19" s="4">
         <v>1403.1942796123101</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>395587.41618379502</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>8322.5340546755506</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>4485.3433035714297</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>1299.5220821616899</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>17200.4781431103</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>1957082.89553388</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>201458.423849757</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>262266.639508661</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>34890.988226316898</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>59481.483067190602</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>463.33816150321098</v>
       </c>
-      <c r="N19" s="4">
+      <c r="O19" s="4">
         <v>62815.127109243302</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <v>21538.990731565202</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <v>822.06696750915</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <v>38704.828133312803</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <v>2054.5322213405502</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <v>6828.0801112192403</v>
       </c>
-      <c r="T19" s="4">
+      <c r="U19" s="4">
         <v>15014.8013589561</v>
       </c>
-      <c r="U19" s="4">
+      <c r="V19" s="4">
         <v>14139.735442342</v>
       </c>
-      <c r="V19" s="4">
+      <c r="W19" s="4">
         <v>1033475.45403366</v>
       </c>
-      <c r="W19" s="4">
+      <c r="X19" s="4">
         <v>8469.7888693009809</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Y19" s="4">
         <v>24776.5774550688</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Z19" s="4">
         <v>17354.968661201299</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="AA19" s="4">
         <v>123438.619307834</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AB19" s="4">
         <v>47631.602763711897</v>
       </c>
-      <c r="AB19" s="4">
+      <c r="AC19" s="4">
         <v>699.67378386970302</v>
       </c>
-      <c r="AC19" s="4">
+      <c r="AD19" s="4">
         <v>702.40559250142405</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AE19" s="4">
         <v>1217.0548735156999</v>
       </c>
-      <c r="AE19" s="4">
+      <c r="AF19" s="4">
         <v>3872.36424302368</v>
       </c>
-      <c r="AF19" s="4">
+      <c r="AG19" s="4">
         <v>21694.500236597702</v>
       </c>
-      <c r="AG19" s="4">
+      <c r="AH19" s="4">
         <v>33447.120372213998</v>
       </c>
-      <c r="AH19" s="4">
+      <c r="AI19" s="4">
         <v>238691.06322951001</v>
       </c>
-      <c r="AI19" s="4">
+      <c r="AJ19" s="4">
         <v>4661331.61189174</v>
       </c>
-      <c r="AJ19" s="4">
+      <c r="AK19" s="4">
         <v>4600155.3466495099</v>
       </c>
-      <c r="AK19" s="4">
+      <c r="AL19" s="4">
         <v>61176.265242224101</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="C20" s="4">
         <v>1403.8632659905199</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>411637.31978204899</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>8129.1266276815304</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>4500.7345845481104</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>1341.48499814258</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>18258.0490592684</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>2056780.5217843</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>208836.48857417601</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>271568.725492528</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>35844.078953978402</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>61930.277190417</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>496.33129074458998</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>66808.366776076306</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>21813.256137833501</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q20" s="4">
         <v>829.86193106910105</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4">
         <v>39974.764465610097</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <v>2095.1430720447802</v>
       </c>
-      <c r="S20" s="4">
+      <c r="T20" s="4">
         <v>6885.705306117</v>
       </c>
-      <c r="T20" s="4">
+      <c r="U20" s="4">
         <v>15650.167709792</v>
       </c>
-      <c r="U20" s="4">
+      <c r="V20" s="4">
         <v>14024.8143287034</v>
       </c>
-      <c r="V20" s="4">
+      <c r="W20" s="4">
         <v>1047736.82794074</v>
       </c>
-      <c r="W20" s="4">
+      <c r="X20" s="4">
         <v>8711.3227646304404</v>
       </c>
-      <c r="X20" s="4">
+      <c r="Y20" s="4">
         <v>26910.248601033702</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Z20" s="4">
         <v>18458.592084777301</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="AA20" s="4">
         <v>134704.32920934801</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AB20" s="4">
         <v>49160.341085197302</v>
       </c>
-      <c r="AB20" s="4">
+      <c r="AC20" s="4">
         <v>743.69663226351895</v>
       </c>
-      <c r="AC20" s="4">
+      <c r="AD20" s="4">
         <v>719.97651349202499</v>
       </c>
-      <c r="AD20" s="4">
+      <c r="AE20" s="4">
         <v>1267.8942813864501</v>
       </c>
-      <c r="AE20" s="4">
+      <c r="AF20" s="4">
         <v>4032.8120357503699</v>
       </c>
-      <c r="AF20" s="4">
+      <c r="AG20" s="4">
         <v>22430.324872581299</v>
       </c>
-      <c r="AG20" s="4">
+      <c r="AH20" s="4">
         <v>35847.334115074198</v>
       </c>
-      <c r="AH20" s="4">
+      <c r="AI20" s="4">
         <v>251288.82935375901</v>
       </c>
-      <c r="AI20" s="4">
+      <c r="AJ20" s="4">
         <v>4850821.6108211</v>
       </c>
-      <c r="AJ20" s="4">
+      <c r="AK20" s="4">
         <v>4788805.5463867001</v>
       </c>
-      <c r="AK20" s="4">
+      <c r="AL20" s="4">
         <v>62016.064434398199</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="C21" s="4">
         <v>1234.9005106347399</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>387274.46177066298</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>7789.7083858148299</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>4433.9040224125401</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>1352.20613643398</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>18870.971996046101</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>2054192.84442183</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>206672.04084055801</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>276053.81672884501</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>35480.002091835602</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>62828.939121768301</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="4">
         <v>490.52541705545599</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>67186.830556682107</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <v>21129.834509410499</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Q21" s="4">
         <v>774.97808263533796</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="R21" s="4">
         <v>40185.048929382101</v>
       </c>
-      <c r="R21" s="4">
+      <c r="S21" s="4">
         <v>2164.67299643877</v>
       </c>
-      <c r="S21" s="4">
+      <c r="T21" s="4">
         <v>7098.0086557403502</v>
       </c>
-      <c r="T21" s="4">
+      <c r="U21" s="4">
         <v>15269.613868512701</v>
       </c>
-      <c r="U21" s="4">
+      <c r="V21" s="4">
         <v>13417.1437943607</v>
       </c>
-      <c r="V21" s="4">
+      <c r="W21" s="4">
         <v>998035.63006730401</v>
       </c>
-      <c r="W21" s="4">
+      <c r="X21" s="4">
         <v>8470.9590629367503</v>
       </c>
-      <c r="X21" s="4">
+      <c r="Y21" s="4">
         <v>27340.3709503233</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Z21" s="4">
         <v>17726.5805367311</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="AA21" s="4">
         <v>136180.451118848</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AB21" s="4">
         <v>49625.474193837297</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AC21" s="4">
         <v>721.23668150470098</v>
       </c>
-      <c r="AC21" s="4">
+      <c r="AD21" s="4">
         <v>704.86375363841603</v>
       </c>
-      <c r="AD21" s="4">
+      <c r="AE21" s="4">
         <v>1263.3524293974899</v>
       </c>
-      <c r="AE21" s="4">
+      <c r="AF21" s="4">
         <v>4154.3488368277804</v>
       </c>
-      <c r="AF21" s="4">
+      <c r="AG21" s="4">
         <v>21445.2479077469</v>
       </c>
-      <c r="AG21" s="4">
+      <c r="AH21" s="4">
         <v>37368.513657463998</v>
       </c>
-      <c r="AH21" s="4">
+      <c r="AI21" s="4">
         <v>243241.800493388</v>
       </c>
-      <c r="AI21" s="4">
+      <c r="AJ21" s="4">
         <v>4770179.28252701</v>
       </c>
-      <c r="AJ21" s="4">
+      <c r="AK21" s="4">
         <v>4710232.1935721003</v>
       </c>
-      <c r="AK21" s="4">
+      <c r="AL21" s="4">
         <v>59947.088954901701</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="C22" s="4">
         <v>1147.9422262963001</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>426487.54299940402</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>7909.58</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>4445.6499999999996</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>1397.1134316177699</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>19649.724655581998</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>2208837.11742796</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>218563.34846611199</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>287018.12416713597</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>37237.7953607374</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>64328.2</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>493.82441333333298</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>69555.366999999998</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <v>21418.33</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="4">
         <v>771.01587592592603</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="R22" s="4">
         <v>41338.162171419601</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <v>2259.2880264197202</v>
       </c>
-      <c r="S22" s="4">
+      <c r="T22" s="4">
         <v>6707.7748797660097</v>
       </c>
-      <c r="T22" s="4">
+      <c r="U22" s="4">
         <v>15839.3445919842</v>
       </c>
-      <c r="U22" s="4">
+      <c r="V22" s="4">
         <v>13220.047219219199</v>
       </c>
-      <c r="V22" s="4">
+      <c r="W22" s="4">
         <v>1049924.74894168</v>
       </c>
-      <c r="W22" s="4">
+      <c r="X22" s="4">
         <v>8741.2926749721992</v>
       </c>
-      <c r="X22" s="4">
+      <c r="Y22" s="4">
         <v>28917.185793234999</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="Z22" s="4">
         <v>20047.521995207699</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="AA22" s="4">
         <v>147527.63152072899</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AB22" s="4">
         <v>53752.858492255204</v>
       </c>
-      <c r="AB22" s="4">
+      <c r="AC22" s="4">
         <v>705.01536346666705</v>
       </c>
-      <c r="AC22" s="4">
+      <c r="AD22" s="4">
         <v>681.225963703704</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AE22" s="4">
         <v>1241.8928139592599</v>
       </c>
-      <c r="AE22" s="4">
+      <c r="AF22" s="4">
         <v>4368.3715283047504</v>
       </c>
-      <c r="AF22" s="4">
+      <c r="AG22" s="4">
         <v>22157.919433875199</v>
       </c>
-      <c r="AG22" s="4">
+      <c r="AH22" s="4">
         <v>40284.531860235897</v>
       </c>
-      <c r="AH22" s="4">
+      <c r="AI22" s="4">
         <v>239620.43784939501</v>
       </c>
-      <c r="AI22" s="4">
+      <c r="AJ22" s="4">
         <v>5066595.9271439398</v>
       </c>
-      <c r="AJ22" s="4">
+      <c r="AK22" s="4">
         <v>5005797.0408478202</v>
       </c>
-      <c r="AK22" s="4">
+      <c r="AL22" s="4">
         <v>60798.886296121796</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="C23" s="4">
         <v>1127.7008794528699</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
         <v>452093.64904184401</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>7958.0580211332299</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>4479.2677979227401</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>1426.4837685904099</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>20672.314545495701</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>2296625.64961041</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>231326.662463652</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>305931.216510906</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <v>38920.105788846697</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>66131.352288501701</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <v>492.68364119555002</v>
       </c>
-      <c r="N23" s="4">
+      <c r="O23" s="4">
         <v>75028.081292364106</v>
       </c>
-      <c r="O23" s="4">
+      <c r="P23" s="4">
         <v>21893.114521486299</v>
       </c>
-      <c r="P23" s="4">
+      <c r="Q23" s="4">
         <v>776.91159898341198</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="R23" s="4">
         <v>43058.668161205896</v>
       </c>
-      <c r="R23" s="4">
+      <c r="S23" s="4">
         <v>2382.12836443372</v>
       </c>
-      <c r="S23" s="4">
+      <c r="T23" s="4">
         <v>7078.29477327532</v>
       </c>
-      <c r="T23" s="4">
+      <c r="U23" s="4">
         <v>16446.892853432801</v>
       </c>
-      <c r="U23" s="4">
+      <c r="V23" s="4">
         <v>13448.6281561411</v>
       </c>
-      <c r="V23" s="4">
+      <c r="W23" s="4">
         <v>1091077.4307051899</v>
       </c>
-      <c r="W23" s="4">
+      <c r="X23" s="4">
         <v>9286.0145943604493</v>
       </c>
-      <c r="X23" s="4">
+      <c r="Y23" s="4">
         <v>32331.746242020301</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Z23" s="4">
         <v>20918.067032471299</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="AA23" s="4">
         <v>156861.98861258599</v>
       </c>
-      <c r="AA23" s="4">
+      <c r="AB23" s="4">
         <v>55420.227714178203</v>
       </c>
-      <c r="AB23" s="4">
+      <c r="AC23" s="4">
         <v>721.92675648516195</v>
       </c>
-      <c r="AC23" s="4">
+      <c r="AD23" s="4">
         <v>678.369247376511</v>
       </c>
-      <c r="AD23" s="4">
+      <c r="AE23" s="4">
         <v>1244.8531238563801</v>
       </c>
-      <c r="AE23" s="4">
+      <c r="AF23" s="4">
         <v>4597.7419885844902</v>
       </c>
-      <c r="AF23" s="4">
+      <c r="AG23" s="4">
         <v>22092.696616384401</v>
       </c>
-      <c r="AG23" s="4">
+      <c r="AH23" s="4">
         <v>42364.072982081598</v>
       </c>
-      <c r="AH23" s="4">
+      <c r="AI23" s="4">
         <v>249628.00658165701</v>
       </c>
-      <c r="AI23" s="4">
+      <c r="AJ23" s="4">
         <v>5294521.0062765004</v>
       </c>
-      <c r="AJ23" s="4">
+      <c r="AK23" s="4">
         <v>5233093.5563159604</v>
       </c>
-      <c r="AK23" s="4">
+      <c r="AL23" s="4">
         <v>61427.449960539998</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="C24" s="4">
         <v>1170.9760581780399</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <v>447453.26731581101</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>8203.6923538350402</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>4492.6339103498503</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>1479.8460406485599</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>21731.2072752985</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>2340747.8700582501</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>243950.46056898899</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>318302.90299275599</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
         <v>40931.333938003801</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>68124.809456583607</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <v>487.41291871037703</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O24" s="4">
         <v>79261.137178261095</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <v>22304.937409525301</v>
       </c>
-      <c r="P24" s="4">
+      <c r="Q24" s="4">
         <v>767.93715750141996</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="R24" s="4">
         <v>44337.4491196815</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <v>2496.8625984589198</v>
       </c>
-      <c r="S24" s="4">
+      <c r="T24" s="4">
         <v>7282.5103762463395</v>
       </c>
-      <c r="T24" s="4">
+      <c r="U24" s="4">
         <v>17125.933703709299</v>
       </c>
-      <c r="U24" s="4">
+      <c r="V24" s="4">
         <v>13364.9838501738</v>
       </c>
-      <c r="V24" s="4">
+      <c r="W24" s="4">
         <v>1135144.8042866201</v>
       </c>
-      <c r="W24" s="4">
+      <c r="X24" s="4">
         <v>9805.1550154983506</v>
       </c>
-      <c r="X24" s="4">
+      <c r="Y24" s="4">
         <v>35315.894828120297</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="Z24" s="4">
         <v>20658.898907948998</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="AA24" s="4">
         <v>166492.88288113501</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AB24" s="4">
         <v>56968.619205582101</v>
       </c>
-      <c r="AB24" s="4">
+      <c r="AC24" s="4">
         <v>717.59123329427598</v>
       </c>
-      <c r="AC24" s="4">
+      <c r="AD24" s="4">
         <v>687.73508603368805</v>
       </c>
-      <c r="AD24" s="4">
+      <c r="AE24" s="4">
         <v>1226.8202972878801</v>
       </c>
-      <c r="AE24" s="4">
+      <c r="AF24" s="4">
         <v>4739.4548594059797</v>
       </c>
-      <c r="AF24" s="4">
+      <c r="AG24" s="4">
         <v>22378.571460034898</v>
       </c>
-      <c r="AG24" s="4">
+      <c r="AH24" s="4">
         <v>43862.989598275701</v>
       </c>
-      <c r="AH24" s="4">
+      <c r="AI24" s="4">
         <v>263671.97082970699</v>
       </c>
-      <c r="AI24" s="4">
+      <c r="AJ24" s="4">
         <v>5445689.5527699096</v>
       </c>
-      <c r="AJ24" s="4">
+      <c r="AK24" s="4">
         <v>5383475.0349460002</v>
       </c>
-      <c r="AK24" s="4">
+      <c r="AL24" s="4">
         <v>62214.517823912698</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4">
+      <c r="C25" s="4">
         <v>1168.6330311603499</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>458215.96719102899</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>8204.5368827776601</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>4490.2037080903801</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>1490.6690029843301</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>23208.062665495399</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>2411083.1927120602</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>253651.385312347</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>333817.19522556802</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>41860.077120560803</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>69999.393847320796</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>491.16914188205499</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>83181.798259061805</v>
       </c>
-      <c r="O25" s="4">
+      <c r="P25" s="4">
         <v>22716.831094003799</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <v>786.00135827014697</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="R25" s="4">
         <v>45976.864275810301</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <v>2627.2467251399798</v>
       </c>
-      <c r="S25" s="4">
+      <c r="T25" s="4">
         <v>7590.8557173659601</v>
       </c>
-      <c r="T25" s="4">
+      <c r="U25" s="4">
         <v>17604.014377072701</v>
       </c>
-      <c r="U25" s="4">
+      <c r="V25" s="4">
         <v>13432.295244325</v>
       </c>
-      <c r="V25" s="4">
+      <c r="W25" s="4">
         <v>1151146.07024908</v>
       </c>
-      <c r="W25" s="4">
+      <c r="X25" s="4">
         <v>10249.642451813001</v>
       </c>
-      <c r="X25" s="4">
+      <c r="Y25" s="4">
         <v>37655.335726662299</v>
       </c>
-      <c r="Y25" s="4">
+      <c r="Z25" s="4">
         <v>23558.6391288257</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="AA25" s="4">
         <v>176236.90917152099</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AB25" s="4">
         <v>59670.107698392298</v>
       </c>
-      <c r="AB25" s="4">
+      <c r="AC25" s="4">
         <v>762.22464685929901</v>
       </c>
-      <c r="AC25" s="4">
+      <c r="AD25" s="4">
         <v>700.33636323687699</v>
       </c>
-      <c r="AD25" s="4">
+      <c r="AE25" s="4">
         <v>1227.5872467941399</v>
       </c>
-      <c r="AE25" s="4">
+      <c r="AF25" s="4">
         <v>4874.9227562590604</v>
       </c>
-      <c r="AF25" s="4">
+      <c r="AG25" s="4">
         <v>22972.4804909542</v>
       </c>
-      <c r="AG25" s="4">
+      <c r="AH25" s="4">
         <v>45897.152685098103</v>
       </c>
-      <c r="AH25" s="4">
+      <c r="AI25" s="4">
         <v>267213.333344721</v>
       </c>
-      <c r="AI25" s="4">
+      <c r="AJ25" s="4">
         <v>5603761.13485255</v>
       </c>
-      <c r="AJ25" s="4">
+      <c r="AK25" s="4">
         <v>5540532.8282538103</v>
       </c>
-      <c r="AK25" s="4">
+      <c r="AL25" s="4">
         <v>63228.306598733499</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="C26" s="4">
         <v>1222.4227793483501</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <v>446702.76257192402</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>8161.5174023711397</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>4497.4943148687998</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>1551.7931330746201</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>24475.355115431299</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="4">
         <v>2423233.9848644999</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="4">
         <v>258495.348971208</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <v>348483.81535433501</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="4">
         <v>43390.817941392997</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M26" s="4">
         <v>70732.691139720599</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N26" s="4">
         <v>511.73421721815998</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="4">
         <v>86503.004995898504</v>
       </c>
-      <c r="O26" s="4">
+      <c r="P26" s="4">
         <v>23040.654007858098</v>
       </c>
-      <c r="P26" s="4">
+      <c r="Q26" s="4">
         <v>843.693054256408</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="R26" s="4">
         <v>47896.0163543792</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <v>2728.1567656059101</v>
       </c>
-      <c r="S26" s="4">
+      <c r="T26" s="4">
         <v>7804.1700353208398</v>
       </c>
-      <c r="T26" s="4">
+      <c r="U26" s="4">
         <v>18142.359318894902</v>
       </c>
-      <c r="U26" s="4">
+      <c r="V26" s="4">
         <v>13525.598799215801</v>
       </c>
-      <c r="V26" s="4">
+      <c r="W26" s="4">
         <v>1177013.3587271101</v>
       </c>
-      <c r="W26" s="4">
+      <c r="X26" s="4">
         <v>10717.563903763899</v>
       </c>
-      <c r="X26" s="4">
+      <c r="Y26" s="4">
         <v>39934.738951007603</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Z26" s="4">
         <v>24671.1566942711</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="AA26" s="4">
         <v>180386.11294852599</v>
       </c>
-      <c r="AA26" s="4">
+      <c r="AB26" s="4">
         <v>64210.385210071297</v>
       </c>
-      <c r="AB26" s="4">
+      <c r="AC26" s="4">
         <v>807.67651470134899</v>
       </c>
-      <c r="AC26" s="4">
+      <c r="AD26" s="4">
         <v>708.40507005398297</v>
       </c>
-      <c r="AD26" s="4">
+      <c r="AE26" s="4">
         <v>1232.1511060098401</v>
       </c>
-      <c r="AE26" s="4">
+      <c r="AF26" s="4">
         <v>4964.2739222685404</v>
       </c>
-      <c r="AF26" s="4">
+      <c r="AG26" s="4">
         <v>22840.176174645101</v>
       </c>
-      <c r="AG26" s="4">
+      <c r="AH26" s="4">
         <v>47383.665640403298</v>
       </c>
-      <c r="AH26" s="4">
+      <c r="AI26" s="4">
         <v>256807.01343286599</v>
       </c>
-      <c r="AI26" s="4">
+      <c r="AJ26" s="4">
         <v>5663620.0694325203</v>
       </c>
-      <c r="AJ26" s="4">
+      <c r="AK26" s="4">
         <v>5600024.9761788798</v>
       </c>
-      <c r="AK26" s="4">
+      <c r="AL26" s="4">
         <v>63595.093253637999</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="4">
+      <c r="C27" s="4">
         <v>1272.8721356818201</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
         <v>458528.19713357801</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>8025.7336270109399</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>4540.5228662231902</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>1596.36091435667</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>25664.169101334701</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I27" s="4">
         <v>2331896.1017669998</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="4">
         <v>264318.05171089998</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="4">
         <v>359119.59915421699</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="4">
         <v>45440.281997091297</v>
       </c>
-      <c r="L27" s="4">
+      <c r="M27" s="4">
         <v>73774.196858728596</v>
       </c>
-      <c r="M27" s="4">
+      <c r="N27" s="4">
         <v>502.71672663238002</v>
       </c>
-      <c r="N27" s="4">
+      <c r="O27" s="4">
         <v>86639.458057638694</v>
       </c>
-      <c r="O27" s="4">
+      <c r="P27" s="4">
         <v>23570.305769885901</v>
       </c>
-      <c r="P27" s="4">
+      <c r="Q27" s="4">
         <v>896.29152105841604</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="R27" s="4">
         <v>49878.932677287499</v>
       </c>
-      <c r="R27" s="4">
+      <c r="S27" s="4">
         <v>2814.7519066990599</v>
       </c>
-      <c r="S27" s="4">
+      <c r="T27" s="4">
         <v>7898.6955743197996</v>
       </c>
-      <c r="T27" s="4">
+      <c r="U27" s="4">
         <v>18802.8679899216</v>
       </c>
-      <c r="U27" s="4">
+      <c r="V27" s="4">
         <v>13660.381244525201</v>
       </c>
-      <c r="V27" s="4">
+      <c r="W27" s="4">
         <v>1208249.2695758599</v>
       </c>
-      <c r="W27" s="4">
+      <c r="X27" s="4">
         <v>11245.8277404693</v>
       </c>
-      <c r="X27" s="4">
+      <c r="Y27" s="4">
         <v>42241.926015646903</v>
       </c>
-      <c r="Y27" s="4">
+      <c r="Z27" s="4">
         <v>25401.974656256101</v>
       </c>
-      <c r="Z27" s="4">
+      <c r="AA27" s="4">
         <v>186250.830626632</v>
       </c>
-      <c r="AA27" s="4">
+      <c r="AB27" s="4">
         <v>68731.397459872707</v>
       </c>
-      <c r="AB27" s="4">
+      <c r="AC27" s="4">
         <v>838.06867630654301</v>
       </c>
-      <c r="AC27" s="4">
+      <c r="AD27" s="4">
         <v>719.76138899424097</v>
       </c>
-      <c r="AD27" s="4">
+      <c r="AE27" s="4">
         <v>1255.8669142528399</v>
       </c>
-      <c r="AE27" s="4">
+      <c r="AF27" s="4">
         <v>4864.3427811709098</v>
       </c>
-      <c r="AF27" s="4">
+      <c r="AG27" s="4">
         <v>22708.0408293658</v>
       </c>
-      <c r="AG27" s="4">
+      <c r="AH27" s="4">
         <v>47559.336437699698</v>
       </c>
-      <c r="AH27" s="4">
+      <c r="AI27" s="4">
         <v>242169.01366719301</v>
       </c>
-      <c r="AI27" s="4">
+      <c r="AJ27" s="4">
         <v>5641076.1455038004</v>
       </c>
-      <c r="AJ27" s="4">
+      <c r="AK27" s="4">
         <v>5577380.4339715298</v>
       </c>
-      <c r="AK27" s="4">
+      <c r="AL27" s="4">
         <v>63695.711532278001</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="C28" s="4">
         <v>1328.56895093203</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>448232.66120720602</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>8025.7336270109399</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>4614.7123117853798</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>1583.92872485014</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>26758.468587506501</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>2248070.5185351199</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>268518.125192212</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>366158.522295704</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>47407.295474147002</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>73110.229087</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
         <v>507.19055398131201</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <v>85368.024968858503</v>
       </c>
-      <c r="O28" s="4">
+      <c r="P28" s="4">
         <v>24128.0873171721</v>
       </c>
-      <c r="P28" s="4">
+      <c r="Q28" s="4">
         <v>913.01108961518105</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="R28" s="4">
         <v>51408.580300757698</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <v>2906.6311635137199</v>
       </c>
-      <c r="S28" s="4">
+      <c r="T28" s="4">
         <v>8012.4295116180201</v>
       </c>
-      <c r="T28" s="4">
+      <c r="U28" s="4">
         <v>19481.5619812281</v>
       </c>
-      <c r="U28" s="4">
+      <c r="V28" s="4">
         <v>13845.2117131265</v>
       </c>
-      <c r="V28" s="4">
+      <c r="W28" s="4">
         <v>1236249.3232167701</v>
       </c>
-      <c r="W28" s="4">
+      <c r="X28" s="4">
         <v>11774.626921270799</v>
       </c>
-      <c r="X28" s="4">
+      <c r="Y28" s="4">
         <v>44299.164004364502</v>
       </c>
-      <c r="Y28" s="4">
+      <c r="Z28" s="4">
         <v>26441.568150135601</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="AA28" s="4">
         <v>193482.01323744</v>
       </c>
-      <c r="AA28" s="4">
+      <c r="AB28" s="4">
         <v>73298.805139325006</v>
       </c>
-      <c r="AB28" s="4">
+      <c r="AC28" s="4">
         <v>867.98197278487396</v>
       </c>
-      <c r="AC28" s="4">
+      <c r="AD28" s="4">
         <v>737.31279233410896</v>
       </c>
-      <c r="AD28" s="4">
+      <c r="AE28" s="4">
         <v>1282.02479789261</v>
       </c>
-      <c r="AE28" s="4">
+      <c r="AF28" s="4">
         <v>4356.9877936306502</v>
       </c>
-      <c r="AF28" s="4">
+      <c r="AG28" s="4">
         <v>22192.944714474499</v>
       </c>
-      <c r="AG28" s="4">
+      <c r="AH28" s="4">
         <v>48250.578812548803</v>
       </c>
-      <c r="AH28" s="4">
+      <c r="AI28" s="4">
         <v>218678.61934147499</v>
       </c>
-      <c r="AI28" s="4">
+      <c r="AJ28" s="4">
         <v>5582291.4434877997</v>
       </c>
-      <c r="AJ28" s="4">
+      <c r="AK28" s="4">
         <v>5519129.2032818701</v>
       </c>
-      <c r="AK28" s="4">
+      <c r="AL28" s="4">
         <v>63162.240205931899</v>
       </c>
     </row>
